--- a/df_log_20250104.xlsx
+++ b/df_log_20250104.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D36D871-670A-4881-A8F3-C71347CED9F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C980540-712D-4079-9C16-4C7407B59A2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21926" windowHeight="7414" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2296,7 +2296,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4000,7 +4000,7 @@
         <v>311</v>
       </c>
       <c r="D100" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>12</v>
@@ -4374,7 +4374,7 @@
         <v>379</v>
       </c>
       <c r="D122" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
